--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>647713.7436494963</v>
+        <v>640703.0145335017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>313.2298918975256</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>247.8160383139214</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.2483168457482</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>38.22848769911243</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>105.1221416560109</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>196.9398103875019</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>162.638182601701</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>289.5198188779447</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>78.40988820400763</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968144</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29.1631248823653</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>95.98918911403636</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>17.38072857787068</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>54.32240344743249</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>222.5625216340497</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.82406701840797</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>41.47724628046095</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>198.6433114276144</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.48653597855968</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>283.7357147238133</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>54.92939324850805</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.9072347520096</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>69.59856557639411</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412918</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,16 +3004,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568062</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291036</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838915</v>
+        <v>24.17382596574959</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828928</v>
+        <v>52.06849973564971</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162031</v>
+        <v>272.7781592435635</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043176</v>
+        <v>70.57601873167803</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945460001</v>
+        <v>55.72314698196044</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643973</v>
+        <v>41.29686219380017</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931884</v>
+        <v>41.22330424667928</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908611</v>
+        <v>42.97275566644655</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147825</v>
+        <v>53.79159358883868</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805029</v>
+        <v>41.14384575541072</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922222</v>
+        <v>18.98356133658265</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367814</v>
+        <v>9.882059701038571</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920546</v>
+        <v>88.00800320656589</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947761</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1719.957270344202</v>
+        <v>1177.089368394544</v>
       </c>
       <c r="C2" t="n">
-        <v>1719.957270344202</v>
+        <v>783.9138668974742</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.51614156087</v>
+        <v>783.9138668974742</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774146</v>
+        <v>467.5200366979533</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>50.62559822793113</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>259.7298875736933</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>259.7298875736933</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059668</v>
+        <v>773.3325661833804</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.51814869713</v>
+        <v>1286.935244793068</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>1726.974845685396</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023274</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964325</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964325</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.957270344202</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="V2" t="n">
-        <v>1719.957270344202</v>
+        <v>1566.541973461487</v>
       </c>
       <c r="W2" t="n">
-        <v>1719.957270344202</v>
+        <v>1566.541973461487</v>
       </c>
       <c r="X2" t="n">
-        <v>1719.957270344202</v>
+        <v>1177.089368394544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1719.957270344202</v>
+        <v>1177.089368394544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948782</v>
+        <v>759.4240460077413</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948782</v>
+        <v>608.7698155678335</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163586</v>
+        <v>478.6808481893138</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272463</v>
+        <v>342.2343573002015</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103781</v>
+        <v>217.8025511833333</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822426</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284347</v>
+        <v>90.89050074442676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303162</v>
+        <v>1038.672011264339</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313255</v>
+        <v>1038.672011264339</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021355</v>
+        <v>1552.274689874026</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737752</v>
+        <v>1840.797246262027</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635817</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535686</v>
+        <v>1940.231660716787</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734594</v>
+        <v>1763.247848915695</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413236</v>
+        <v>1553.184705594337</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784303</v>
+        <v>1330.644703965404</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.23104691759</v>
+        <v>1100.527458098691</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676015</v>
+        <v>911.2203804487026</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431088</v>
+        <v>911.2203804487026</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.9332583177734</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="C4" t="n">
-        <v>511.9332583177734</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="D4" t="n">
-        <v>356.3001452202881</v>
+        <v>501.8783644423065</v>
       </c>
       <c r="E4" t="n">
-        <v>356.3001452202881</v>
+        <v>346.319552301509</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9742104332611</v>
+        <v>346.319552301509</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9742104332611</v>
+        <v>178.0654984009545</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023642</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475505</v>
+        <v>71.88151693023642</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>746.0135805347903</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V4" t="n">
-        <v>746.0135805347903</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="W4" t="n">
-        <v>746.0135805347903</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="X4" t="n">
-        <v>511.9332583177734</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="Y4" t="n">
-        <v>511.9332583177734</v>
+        <v>657.5114775397917</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1133.086926026009</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>1133.086926026009</v>
+        <v>852.9611654812857</v>
       </c>
       <c r="D5" t="n">
-        <v>747.6457972426767</v>
+        <v>467.5200366979533</v>
       </c>
       <c r="E5" t="n">
-        <v>345.0622723592213</v>
+        <v>467.5200366979533</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634782</v>
+        <v>50.62559822793113</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354916</v>
+        <v>1376.714099066282</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572954</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465282</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596804</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.16942410244</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172351</v>
+        <v>1781.416694537038</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.030240172351</v>
+        <v>1781.416694537038</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.030240172351</v>
+        <v>1410.417659505326</v>
       </c>
       <c r="X5" t="n">
-        <v>1529.577635105408</v>
+        <v>1410.417659505326</v>
       </c>
       <c r="Y5" t="n">
-        <v>1133.086926026009</v>
+        <v>1410.417659505326</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.861642534786</v>
+        <v>769.4169067332368</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948782</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163586</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272463</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103781</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822426</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284347</v>
+        <v>90.89050074442676</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653896</v>
+        <v>921.5731989359427</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875483</v>
+        <v>921.5731989359427</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466464</v>
+        <v>1435.17587754563</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182862</v>
+        <v>1840.797246262027</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737752</v>
+        <v>1940.231660716787</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915695</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045875</v>
+        <v>1553.184705594337</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416942</v>
+        <v>1330.644703965404</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1100.527458098691</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1100.527458098691</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757474</v>
+        <v>921.2132411741982</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.6875846330378</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="C7" t="n">
-        <v>354.6875846330378</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0544715355526</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>588.7679068500547</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>588.7679068500547</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V7" t="n">
-        <v>588.7679068500547</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="W7" t="n">
-        <v>588.7679068500547</v>
+        <v>138.4620236392034</v>
       </c>
       <c r="X7" t="n">
-        <v>354.6875846330378</v>
+        <v>41.50324675633836</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.6875846330378</v>
+        <v>41.50324675633836</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.401029800382</v>
+        <v>1208.144603466536</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.225528303313</v>
+        <v>814.9691019694667</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7843995199803</v>
+        <v>814.9691019694667</v>
       </c>
       <c r="E8" t="n">
-        <v>528.2008746365248</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>111.3064361665025</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>102.1840846949098</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>102.1840846949098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.895775511779</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.895775511779</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X8" t="n">
-        <v>2109.895775511779</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y8" t="n">
-        <v>2109.895775511779</v>
+        <v>1208.144603466536</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>202.7915211400496</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880363</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>815.124613155088</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312597</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.295711449809</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3022.295711449809</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3022.295711449809</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299521</v>
+        <v>2633.682115215322</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2334.479355329803</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2016.823025409054</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.6863671542445</v>
+        <v>229.7185026500107</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542445</v>
+        <v>229.7185026500107</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029531</v>
+        <v>145.8816646987191</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5206,10 +5206,10 @@
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>949.0355327136069</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127917</v>
+        <v>754.852462680625</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901634</v>
+        <v>543.3183357579965</v>
       </c>
       <c r="X13" t="n">
-        <v>582.4303428901634</v>
+        <v>381.0342886871734</v>
       </c>
       <c r="Y13" t="n">
-        <v>556.6863671542445</v>
+        <v>229.7185026500107</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1769.879336723576</v>
+        <v>1647.670720108871</v>
       </c>
       <c r="C14" t="n">
-        <v>1448.5001103727</v>
+        <v>1326.291493757995</v>
       </c>
       <c r="D14" t="n">
-        <v>1134.855256735562</v>
+        <v>1012.646640120856</v>
       </c>
       <c r="E14" t="n">
-        <v>804.0680069983002</v>
+        <v>726.0449080766006</v>
       </c>
       <c r="F14" t="n">
-        <v>458.969843674472</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="G14" t="n">
-        <v>117.6033633086691</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.928571142733</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X14" t="n">
-        <v>2423.272241221984</v>
+        <v>1972.365154042076</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.577807288779</v>
+        <v>1647.670720108871</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.4129340497493</v>
+        <v>461.4198987343946</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619324</v>
+        <v>363.0110559465777</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106411</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160375</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="W16" t="n">
-        <v>582.430342890163</v>
+        <v>888.4314753874878</v>
       </c>
       <c r="X16" t="n">
-        <v>582.430342890163</v>
+        <v>726.1474283166648</v>
       </c>
       <c r="Y16" t="n">
-        <v>582.430342890163</v>
+        <v>574.8316422795019</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,10 +5677,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
         <v>806.6193906797589</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
         <v>1974.833293963354</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6306,22 +6306,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>218.9633184712348</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>702.529404369548</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1330.301053996229</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6406,28 +6406,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U28" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,16 +6461,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>606.9665031662627</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
         <v>2360.201702025981</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.131976164851</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985357</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517132</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878072</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879686</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746022</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232845</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286449</v>
+        <v>861.9084564286454</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988169</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026486</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222133</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189326</v>
+        <v>91.97314162835471</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>651.4842651334736</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741593</v>
+        <v>1256.456677426986</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786174</v>
+        <v>1802.457577471566</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423636</v>
+        <v>2330.268861109028</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315965</v>
+        <v>2770.308462001357</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174557</v>
+        <v>3118.495954132879</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042575</v>
+        <v>3303.341514273828</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380769</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761244</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394127</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291779</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.5154531542</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>573.6059565051527</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.73941204771</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965148</v>
+        <v>365.6713676929697</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918683</v>
+        <v>309.3853606404845</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237473</v>
+        <v>267.6713584245247</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123141</v>
+        <v>226.0316571652527</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546514</v>
+        <v>182.6248332597511</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.2898902407222</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431951</v>
+        <v>86.73045008374164</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798907</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074061</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082759</v>
+        <v>395.3961945636323</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465399</v>
+        <v>581.6877729018963</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777491</v>
+        <v>876.5295275080887</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946527</v>
+        <v>1039.234294549797</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450176</v>
+        <v>1264.910118928618</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746648</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308589</v>
+        <v>1370.002557387754</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420503</v>
+        <v>1281.105584451829</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518101</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250153</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395547</v>
+        <v>835.725728327365</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000967</v>
+        <v>666.3144371400681</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124441</v>
+        <v>546.1532258045767</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584517</v>
+        <v>436.9602755027455</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7254,13 +7254,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7345,13 +7345,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7576,7 +7576,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,7 +7734,7 @@
         <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>363.489353499798</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519568</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920136</v>
       </c>
       <c r="O2" t="n">
-        <v>218.5182021115942</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.08286448375</v>
+        <v>611.1777065035413</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886047</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>259.9423929374743</v>
+        <v>611.4781433431184</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>378.5202904637604</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>277.7768138244411</v>
+        <v>491.4002350877529</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920136</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,19 +8295,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562889</v>
+        <v>544.1202775014842</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886047</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431184</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,22 +8453,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,22 +8532,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2818744604613</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,13 +9006,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>486.9652344155852</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,10 +9489,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>457.616862805975</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,13 +9726,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9954,7 +9954,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>122.4085285696537</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,16 +10431,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,22 +10662,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>709.3350389104421</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10902,16 +10902,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11382,10 +11382,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.94604009522001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>226.1301825283239</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12.86278001817175</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.3160921982315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>43.74366251607569</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>194.8345142859342</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.3703913576467</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.39990399538435</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828666.9218068828</v>
+        <v>828666.9218068826</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937727.326085455</v>
+        <v>937727.3260854549</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324597.9205680421</v>
+        <v>324597.9205680423</v>
       </c>
       <c r="C2" t="n">
         <v>324597.9205680421</v>
       </c>
       <c r="D2" t="n">
-        <v>324597.920568042</v>
+        <v>324597.9205680421</v>
       </c>
       <c r="E2" t="n">
-        <v>286846.2421639212</v>
+        <v>286846.2421639214</v>
       </c>
       <c r="F2" t="n">
         <v>286846.2421639212</v>
       </c>
       <c r="G2" t="n">
+        <v>324597.920568043</v>
+      </c>
+      <c r="H2" t="n">
         <v>324597.9205680428</v>
-      </c>
-      <c r="H2" t="n">
-        <v>324597.9205680429</v>
       </c>
       <c r="I2" t="n">
         <v>324597.9205680428</v>
@@ -26338,10 +26338,10 @@
         <v>324597.9205680427</v>
       </c>
       <c r="K2" t="n">
+        <v>324597.9205680426</v>
+      </c>
+      <c r="L2" t="n">
         <v>324597.9205680427</v>
-      </c>
-      <c r="L2" t="n">
-        <v>324597.920568042</v>
       </c>
       <c r="M2" t="n">
         <v>324597.9205680429</v>
@@ -26350,10 +26350,10 @@
         <v>324597.9205680428</v>
       </c>
       <c r="O2" t="n">
-        <v>324597.920568043</v>
+        <v>324597.9205680429</v>
       </c>
       <c r="P2" t="n">
-        <v>324597.920568043</v>
+        <v>324597.9205680429</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062162</v>
+        <v>22558.42953401383</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728535</v>
+        <v>62456.24177539697</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005339</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005339</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.4955237375</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701646</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481715</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481715</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173854</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91497.43208813803</v>
+        <v>-88349.08150136351</v>
       </c>
       <c r="C6" t="n">
-        <v>90707.51620371816</v>
+        <v>85509.57553269106</v>
       </c>
       <c r="D6" t="n">
-        <v>85844.23390984294</v>
+        <v>78107.94468645076</v>
       </c>
       <c r="E6" t="n">
-        <v>47453.1654662986</v>
+        <v>47243.43391960927</v>
       </c>
       <c r="F6" t="n">
-        <v>159575.7269403432</v>
+        <v>159365.9953936537</v>
       </c>
       <c r="G6" t="n">
-        <v>97159.41370052155</v>
+        <v>97159.41370052166</v>
       </c>
       <c r="H6" t="n">
         <v>144584.7392372036</v>
@@ -26543,22 +26543,22 @@
         <v>144584.7392372035</v>
       </c>
       <c r="J6" t="n">
-        <v>-68457.17836008244</v>
+        <v>-61940.89320550873</v>
       </c>
       <c r="K6" t="n">
         <v>138344.9708344204</v>
       </c>
       <c r="L6" t="n">
-        <v>83162.38189979873</v>
+        <v>79113.54468932684</v>
       </c>
       <c r="M6" t="n">
-        <v>102383.9097775806</v>
+        <v>101332.2147663924</v>
       </c>
       <c r="N6" t="n">
         <v>144584.7392372035</v>
       </c>
       <c r="O6" t="n">
-        <v>116817.0451944325</v>
+        <v>116817.0451944323</v>
       </c>
       <c r="P6" t="n">
         <v>144584.7392372036</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095213</v>
+        <v>844.4391950293127</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660669</v>
+        <v>78.07030221924622</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551372</v>
+        <v>17.58004954287415</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.6215418150656</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773723</v>
+        <v>659.3622249971637</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407174</v>
+        <v>117.1268713042804</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.6215418150656</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.32779773709524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>5.379163955825959</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.0300542508035</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>80.63073204974177</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>48.80162387211004</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>85.64459345301617</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>233.8516156525819</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>123.2056752073773</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>70.73779993150107</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626618</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>204.1987364310829</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.1769610567502</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>82.63134229102732</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28062,13 +28062,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>40.75703009333435</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29223,25 +29223,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.636002634528836</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,13 +29296,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29314,13 +29314,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.10808140892794</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566955</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>106.8683420224671</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254671</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30165,11 +30165,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485259</v>
-      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634528921</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32479,7 +32479,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>220.4309503205606</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="O2" t="n">
-        <v>68.95436468749777</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344381</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>167.2548340485854</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>291.4369256444457</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267138</v>
+        <v>341.6751834900256</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,19 +35015,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069769</v>
+        <v>451.7331554521723</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344381</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542295</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,22 +35173,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>396.904887558667</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,10 +36209,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,13 +36446,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873208</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>584.9538525242067</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>32.81159323632036</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809041</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698315</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407076</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338805</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111298</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273738</v>
+        <v>75.16693519537695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279116</v>
+        <v>82.70543230055117</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868806</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220906</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.819954147669</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380288</v>
+        <v>227.9553781604253</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269919</v>
+        <v>116.2366837828627</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>623.9629260562755</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
